--- a/data/trans_dic/P1427-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1427-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004540513534821281</v>
+        <v>0.004363016446289818</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002252033852169967</v>
+        <v>0.002406248752829369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01685705783261529</v>
+        <v>0.01641056103084941</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005733025173020557</v>
+        <v>0.006141467343719498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01128161000710164</v>
+        <v>0.01120143076833977</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003755691140138653</v>
+        <v>0.00380459047114043</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006438615635184892</v>
+        <v>0.005970955776227077</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01627579628402095</v>
+        <v>0.01610454119072604</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03537465361255528</v>
+        <v>0.03131273404720603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02202707161448261</v>
+        <v>0.02257142377270606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03866286893350543</v>
+        <v>0.0381017342865554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01783893333072056</v>
+        <v>0.0169451997841949</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04033622315395614</v>
+        <v>0.03851696964462581</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03047448447269512</v>
+        <v>0.03137454392630432</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02186761093699318</v>
+        <v>0.02148092540680727</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02428400600398263</v>
+        <v>0.02419068607293865</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0307345857767219</v>
+        <v>0.03088973692916894</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005298651462159859</v>
+        <v>0.005206041382925271</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002424886545295915</v>
+        <v>0.002428617173237273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01248799522366254</v>
+        <v>0.01298182285758997</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002363788609208694</v>
+        <v>0.002374557999531898</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01389974657416788</v>
+        <v>0.01419935773012167</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005646730274484378</v>
+        <v>0.005326929756486936</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003868057864881178</v>
+        <v>0.002938534486401159</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01559736115139489</v>
+        <v>0.01568931491955841</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03799876613994688</v>
+        <v>0.03629716081432716</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02193786162165509</v>
+        <v>0.02308154336316766</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03623423044866968</v>
+        <v>0.03539575775624036</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04278656705734729</v>
+        <v>0.03802542664958129</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02474067034680475</v>
+        <v>0.02422419550391264</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03887149177106902</v>
+        <v>0.03890136029011607</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02715018251894319</v>
+        <v>0.02605026038760709</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01861864631994706</v>
+        <v>0.01712833547891066</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0318136925040187</v>
+        <v>0.03224606068287789</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.02741726145716015</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05439568478612851</v>
+        <v>0.05439568478612852</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.02055836807968566</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01403657655110771</v>
+        <v>0.01469233141164131</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01113884490409807</v>
+        <v>0.01130329368353849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01589757351485977</v>
+        <v>0.01667546768036894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003822390346407688</v>
+        <v>0.003801882133592123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0066524603954375</v>
+        <v>0.006692046561998622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03150471343187086</v>
+        <v>0.03335103392309662</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01154908761081041</v>
+        <v>0.01244151702305624</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01327099526457603</v>
+        <v>0.01324368074979573</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02510963891078639</v>
+        <v>0.02360917683969778</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03903416860958221</v>
+        <v>0.04033915289912137</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03610764318612301</v>
+        <v>0.03558756216450062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03903268547017055</v>
+        <v>0.04012252015262413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03563228538052371</v>
+        <v>0.0327934999906804</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06713615192849909</v>
+        <v>0.06258795825255768</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08648273585410986</v>
+        <v>0.0869833566681595</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03125071263195425</v>
+        <v>0.03235574546615966</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03681207299041022</v>
+        <v>0.03650985983431965</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04656738650506496</v>
+        <v>0.04701334017726767</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01880972942849105</v>
+        <v>0.01952925437175019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002412385326846495</v>
+        <v>0.003039400697646075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02918291663483926</v>
+        <v>0.02953134999127641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008284852579546699</v>
+        <v>0.008344979247453305</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01263574247042633</v>
+        <v>0.01223966642806253</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02155086850526099</v>
+        <v>0.02076385247286426</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01641230907291142</v>
+        <v>0.01648500423527248</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008000768635424066</v>
+        <v>0.008347838954379615</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02879062391547048</v>
+        <v>0.02801160438464417</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03993734496307268</v>
+        <v>0.0406369501923198</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01208626021835129</v>
+        <v>0.01302495300312517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04980785794718772</v>
+        <v>0.05113246909708779</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02880379730382658</v>
+        <v>0.02949138924938767</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03473048982755052</v>
+        <v>0.0348270499188231</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03785067900184501</v>
+        <v>0.0381549845370468</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03132027948214595</v>
+        <v>0.03201741744013315</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01820798029624053</v>
+        <v>0.0193598960244472</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04224164824112697</v>
+        <v>0.04100389666945449</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006050928929659121</v>
+        <v>0.006211595968804175</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009081588861560656</v>
+        <v>0.009102283003941671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03281258904230418</v>
+        <v>0.03235746179141865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02291809830247678</v>
+        <v>0.0225853644038133</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0181545243734703</v>
+        <v>0.01822701992088713</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05959308537159427</v>
+        <v>0.05948356368526551</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01815493510427281</v>
+        <v>0.01786538285074387</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01593470735183855</v>
+        <v>0.01567864243473216</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0510491896381288</v>
+        <v>0.05205102437635948</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02907079508153747</v>
+        <v>0.0279894489052966</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.029018145326871</v>
+        <v>0.02858916453508012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06138089713473568</v>
+        <v>0.06238858660483552</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04884643607527892</v>
+        <v>0.04964203524726444</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04458418156675681</v>
+        <v>0.04545315095438605</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08393789962279588</v>
+        <v>0.0857026383739687</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0366904062510032</v>
+        <v>0.03583062153030473</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03158127450773007</v>
+        <v>0.03268954061606127</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07047771048868971</v>
+        <v>0.07133608049519753</v>
       </c>
     </row>
     <row r="19">
@@ -1209,7 +1209,7 @@
         <v>0.02003260177079754</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.0446521824824288</v>
+        <v>0.04465218248242881</v>
       </c>
     </row>
     <row r="20">
@@ -1222,25 +1222,25 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.002032076629645494</v>
+        <v>0.002069913780654065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03277175594945678</v>
+        <v>0.03031887092643361</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01606066326494594</v>
+        <v>0.0162742548924462</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04531829144283703</v>
+        <v>0.0434216414189266</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02547981874714187</v>
+        <v>0.02602119998627499</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01349579175681273</v>
+        <v>0.01246087817789844</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0357500201343581</v>
+        <v>0.03522489090760374</v>
       </c>
     </row>
     <row r="21">
@@ -1253,25 +1253,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02143919057492668</v>
+        <v>0.02474152906604521</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05784407507092228</v>
+        <v>0.05768714940130707</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0366537196261436</v>
+        <v>0.03669329347132064</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06915968734685367</v>
+        <v>0.06938294001275713</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04661020246631531</v>
+        <v>0.04623097485543141</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02889385526378944</v>
+        <v>0.02913802167730101</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05500378448455726</v>
+        <v>0.05573513298918738</v>
       </c>
     </row>
     <row r="22">
@@ -1301,7 +1301,7 @@
         <v>0.02278437640188178</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.0439986881559188</v>
+        <v>0.04399868815591881</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.02325121267240492</v>
@@ -1310,7 +1310,7 @@
         <v>0.01674831041189531</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.03784468207587689</v>
+        <v>0.0378446820758769</v>
       </c>
     </row>
     <row r="23">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01540694754093779</v>
+        <v>0.01506600126168781</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007592994748877369</v>
+        <v>0.007436590941781352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02673585957429767</v>
+        <v>0.02681570981161463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02087553922094793</v>
+        <v>0.02103441552772252</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01808083655752117</v>
+        <v>0.01760691607530429</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03925622164989944</v>
+        <v>0.03914233635081867</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01970614467193581</v>
+        <v>0.01974016096147256</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01368708853661836</v>
+        <v>0.01345719285456779</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03436736873533307</v>
+        <v>0.03445717575254251</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02501373013537778</v>
+        <v>0.02527882295631069</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01445848557878721</v>
+        <v>0.0143295571924862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03719793090211385</v>
+        <v>0.03687373850349533</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03240699609025231</v>
+        <v>0.03192897113191758</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02875568470206117</v>
+        <v>0.02842039156487698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04955113453407886</v>
+        <v>0.04943246603178929</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02739216019083092</v>
+        <v>0.02706390558833592</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02020500746377554</v>
+        <v>0.02004825005393675</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04135736302589525</v>
+        <v>0.04128357720683214</v>
       </c>
     </row>
     <row r="25">
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1985</v>
+        <v>1908</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>966</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9282</v>
+        <v>9036</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1990</v>
+        <v>2131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5510</v>
+        <v>5471</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2823</v>
+        <v>2860</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4997</v>
+        <v>4634</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16911</v>
+        <v>16733</v>
       </c>
     </row>
     <row r="7">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15466</v>
+        <v>13690</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9452</v>
+        <v>9685</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21288</v>
+        <v>20980</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5610</v>
+        <v>5328</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13999</v>
+        <v>13368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14884</v>
+        <v>15324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16437</v>
+        <v>16146</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18848</v>
+        <v>18776</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31934</v>
+        <v>32095</v>
       </c>
     </row>
     <row r="8">
@@ -1755,31 +1755,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2219</v>
+        <v>2180</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6034</v>
+        <v>6273</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5873</v>
+        <v>5999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4273</v>
+        <v>4031</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2899</v>
+        <v>2202</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14127</v>
+        <v>14210</v>
       </c>
     </row>
     <row r="11">
@@ -1790,31 +1790,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15914</v>
+        <v>15201</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8276</v>
+        <v>8707</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17509</v>
+        <v>17104</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14462</v>
+        <v>12853</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9210</v>
+        <v>9018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16423</v>
+        <v>16436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20547</v>
+        <v>19715</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13955</v>
+        <v>12838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28814</v>
+        <v>29205</v>
       </c>
     </row>
     <row r="12">
@@ -1899,31 +1899,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8835</v>
+        <v>9248</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5814</v>
+        <v>5899</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7484</v>
+        <v>7850</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5893</v>
+        <v>6238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10273</v>
+        <v>11067</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9131</v>
+        <v>9112</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16517</v>
+        <v>15530</v>
       </c>
     </row>
     <row r="15">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24569</v>
+        <v>25390</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18845</v>
+        <v>18574</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18374</v>
+        <v>18887</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9269</v>
+        <v>8531</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11153</v>
+        <v>10397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16176</v>
+        <v>16269</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27799</v>
+        <v>28782</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25328</v>
+        <v>25120</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30631</v>
+        <v>30925</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21801</v>
+        <v>22635</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2773</v>
+        <v>3494</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32938</v>
+        <v>33331</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6336</v>
+        <v>6382</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10436</v>
+        <v>10108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18545</v>
+        <v>17868</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31573</v>
+        <v>31713</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15806</v>
+        <v>16491</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>57270</v>
+        <v>55721</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>46288</v>
+        <v>47099</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13895</v>
+        <v>14974</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56217</v>
+        <v>57712</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22027</v>
+        <v>22553</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28683</v>
+        <v>28763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32571</v>
+        <v>32833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60252</v>
+        <v>61593</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35970</v>
+        <v>38246</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>84027</v>
+        <v>81565</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3090</v>
+        <v>3172</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5637</v>
+        <v>5650</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18604</v>
+        <v>18346</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17423</v>
+        <v>17170</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13402</v>
+        <v>13456</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>49470</v>
+        <v>49379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23072</v>
+        <v>22704</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21654</v>
+        <v>21306</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>71321</v>
+        <v>72721</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14843</v>
+        <v>14291</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18012</v>
+        <v>17745</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>34801</v>
+        <v>35373</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>37135</v>
+        <v>37740</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32914</v>
+        <v>33556</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>69679</v>
+        <v>71144</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>46628</v>
+        <v>45535</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42917</v>
+        <v>44423</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>98465</v>
+        <v>99664</v>
       </c>
     </row>
     <row r="24">
@@ -2333,25 +2333,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>36355</v>
+        <v>33634</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>17378</v>
+        <v>17609</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>38198</v>
+        <v>36599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>35066</v>
+        <v>35811</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>18478</v>
+        <v>17061</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>38614</v>
+        <v>38046</v>
       </c>
     </row>
     <row r="27">
@@ -2364,25 +2364,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5086</v>
+        <v>5869</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>64169</v>
+        <v>63995</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>39660</v>
+        <v>39703</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>58293</v>
+        <v>58481</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>64146</v>
+        <v>63625</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>39561</v>
+        <v>39895</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>59410</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="28">
@@ -2467,31 +2467,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>52721</v>
+        <v>51555</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25708</v>
+        <v>25178</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>91903</v>
+        <v>92178</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>74044</v>
+        <v>74607</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>63854</v>
+        <v>62181</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>142558</v>
+        <v>142144</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>137329</v>
+        <v>137566</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>94678</v>
+        <v>93088</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>242940</v>
+        <v>243575</v>
       </c>
     </row>
     <row r="31">
@@ -2502,31 +2502,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>85595</v>
+        <v>86502</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>48952</v>
+        <v>48516</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>127866</v>
+        <v>126752</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>114945</v>
+        <v>113249</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>101553</v>
+        <v>100369</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>179943</v>
+        <v>179512</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>190891</v>
+        <v>188604</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>139764</v>
+        <v>138680</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>292352</v>
+        <v>291830</v>
       </c>
     </row>
     <row r="32">
